--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="374">
   <si>
     <t xml:space="preserve">num</t>
   </si>
@@ -1104,6 +1104,36 @@
   </si>
   <si>
     <t xml:space="preserve">94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">% africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">less than 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">% asia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">% europe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">% north america</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">% oceania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">continent_complete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91</t>
   </si>
 </sst>
 </file>
@@ -3624,6 +3654,72 @@
         <v>363</v>
       </c>
     </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>199</v>
+      </c>
+      <c r="B200" t="s">
+        <v>364</v>
+      </c>
+      <c r="C200" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>200</v>
+      </c>
+      <c r="B201" t="s">
+        <v>366</v>
+      </c>
+      <c r="C201" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>201</v>
+      </c>
+      <c r="B202" t="s">
+        <v>367</v>
+      </c>
+      <c r="C202" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>202</v>
+      </c>
+      <c r="B203" t="s">
+        <v>369</v>
+      </c>
+      <c r="C203" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>203</v>
+      </c>
+      <c r="B204" t="s">
+        <v>371</v>
+      </c>
+      <c r="C204" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>204</v>
+      </c>
+      <c r="B205" t="s">
+        <v>372</v>
+      </c>
+      <c r="C205" t="s">
+        <v>373</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="381">
   <si>
     <t xml:space="preserve">num</t>
   </si>
@@ -26,13 +26,13 @@
     <t xml:space="preserve">total.n</t>
   </si>
   <si>
-    <t xml:space="preserve">621,465</t>
+    <t xml:space="preserve">621,463</t>
   </si>
   <si>
     <t xml:space="preserve">total.m</t>
   </si>
   <si>
-    <t xml:space="preserve">897</t>
+    <t xml:space="preserve">856</t>
   </si>
   <si>
     <t xml:space="preserve">total.k</t>
@@ -62,37 +62,37 @@
     <t xml:space="preserve">secondary.m</t>
   </si>
   <si>
-    <t xml:space="preserve">215</t>
+    <t xml:space="preserve">173</t>
   </si>
   <si>
     <t xml:space="preserve">secondary.k</t>
   </si>
   <si>
-    <t xml:space="preserve">62</t>
+    <t xml:space="preserve">54</t>
   </si>
   <si>
     <t xml:space="preserve">secondary.n</t>
   </si>
   <si>
-    <t xml:space="preserve">453,800</t>
+    <t xml:space="preserve">444,530</t>
   </si>
   <si>
     <t xml:space="preserve">control.m</t>
   </si>
   <si>
-    <t xml:space="preserve">243</t>
+    <t xml:space="preserve">244</t>
   </si>
   <si>
     <t xml:space="preserve">control.k</t>
   </si>
   <si>
-    <t xml:space="preserve">122</t>
+    <t xml:space="preserve">123</t>
   </si>
   <si>
     <t xml:space="preserve">control.n</t>
   </si>
   <si>
-    <t xml:space="preserve">102,109</t>
+    <t xml:space="preserve">102,634</t>
   </si>
   <si>
     <t xml:space="preserve">wm.age.mean.m</t>
@@ -227,9 +227,6 @@
     <t xml:space="preserve">wm.first.auth.female.m</t>
   </si>
   <si>
-    <t xml:space="preserve">54</t>
-  </si>
-  <si>
     <t xml:space="preserve">wm.first.auth.female.cmpl</t>
   </si>
   <si>
@@ -329,13 +326,13 @@
     <t xml:space="preserve">l$min_r_convergent</t>
   </si>
   <si>
-    <t xml:space="preserve">0.29</t>
+    <t xml:space="preserve">0.28</t>
   </si>
   <si>
     <t xml:space="preserve">l$max_r_convergent</t>
   </si>
   <si>
-    <t xml:space="preserve">0.64</t>
+    <t xml:space="preserve">0.65</t>
   </si>
   <si>
     <t xml:space="preserve">l$loo_cf_min</t>
@@ -455,91 +452,97 @@
     <t xml:space="preserve">l$second.di.g</t>
   </si>
   <si>
-    <t xml:space="preserve">0.39</t>
+    <t xml:space="preserve">0.40</t>
   </si>
   <si>
     <t xml:space="preserve">l$second.di.CI95</t>
   </si>
   <si>
-    <t xml:space="preserve">[0.33, 0.44]</t>
+    <t xml:space="preserve">[0.35, 0.45]</t>
   </si>
   <si>
     <t xml:space="preserve">l$second.sd.g</t>
   </si>
   <si>
+    <t xml:space="preserve">0.63</t>
+  </si>
+  <si>
     <t xml:space="preserve">l$second.sd.CI95</t>
   </si>
   <si>
-    <t xml:space="preserve">[0.33, 0.84]</t>
+    <t xml:space="preserve">[0.35, 0.92]</t>
   </si>
   <si>
     <t xml:space="preserve">l$second.df.F</t>
   </si>
   <si>
-    <t xml:space="preserve">15.90</t>
+    <t xml:space="preserve">4.00</t>
   </si>
   <si>
     <t xml:space="preserve">l$second.F</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70</t>
+    <t xml:space="preserve">5.75</t>
   </si>
   <si>
     <t xml:space="preserve">l$second.p.F</t>
   </si>
   <si>
-    <t xml:space="preserve">.120</t>
+    <t xml:space="preserve">.074</t>
   </si>
   <si>
     <t xml:space="preserve">l$second.tau</t>
   </si>
   <si>
+    <t xml:space="preserve">0.15</t>
+  </si>
+  <si>
     <t xml:space="preserve">l$second.isq</t>
   </si>
   <si>
-    <t xml:space="preserve">94.71</t>
+    <t xml:space="preserve">90.45</t>
   </si>
   <si>
     <t xml:space="preserve">m.core.second</t>
   </si>
   <si>
-    <t xml:space="preserve">654</t>
+    <t xml:space="preserve">612</t>
   </si>
   <si>
     <t xml:space="preserve">l$k.less.than.0</t>
   </si>
   <si>
-    <t xml:space="preserve">21</t>
+    <t xml:space="preserve">17</t>
   </si>
   <si>
     <t xml:space="preserve">l$perc.less.than.0</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2</t>
+    <t xml:space="preserve">2.8</t>
   </si>
   <si>
     <t xml:space="preserve">l$control.sf.g</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.01</t>
+    <t xml:space="preserve">0.04</t>
   </si>
   <si>
     <t xml:space="preserve">l$control.sf.CI95</t>
   </si>
   <si>
-    <t xml:space="preserve">[-0.10, 0.07]</t>
+    <t xml:space="preserve">[-0.09, 0.17]</t>
   </si>
   <si>
     <t xml:space="preserve">l$control.tp.g</t>
   </si>
   <si>
-    <t xml:space="preserve">0.18</t>
+    <t xml:space="preserve">0.19</t>
   </si>
   <si>
     <t xml:space="preserve">l$control.tp.CI95</t>
   </si>
   <si>
-    <t xml:space="preserve">[0.02, 0.35]</t>
+    <t xml:space="preserve">[0.02, 0.36]</t>
   </si>
   <si>
     <t xml:space="preserve">l$control.ons.g</t>
@@ -554,9 +557,6 @@
     <t xml:space="preserve">l$control.p12.g</t>
   </si>
   <si>
-    <t xml:space="preserve">0.15</t>
-  </si>
-  <si>
     <t xml:space="preserve">l$control.p12.CI95</t>
   </si>
   <si>
@@ -566,13 +566,13 @@
     <t xml:space="preserve">l$control.df.F</t>
   </si>
   <si>
-    <t xml:space="preserve">26.52</t>
+    <t xml:space="preserve">27.75</t>
   </si>
   <si>
     <t xml:space="preserve">l$control.F</t>
   </si>
   <si>
-    <t xml:space="preserve">13.57</t>
+    <t xml:space="preserve">7.49</t>
   </si>
   <si>
     <t xml:space="preserve">l$control.p.F</t>
@@ -584,10 +584,13 @@
     <t xml:space="preserve">l$control.tau</t>
   </si>
   <si>
+    <t xml:space="preserve">0.16</t>
+  </si>
+  <si>
     <t xml:space="preserve">l$control.isq</t>
   </si>
   <si>
-    <t xml:space="preserve">78.26</t>
+    <t xml:space="preserve">80.41</t>
   </si>
   <si>
     <t xml:space="preserve">l$core.global.g</t>
@@ -605,19 +608,16 @@
     <t xml:space="preserve">l$control.global.g</t>
   </si>
   <si>
-    <t xml:space="preserve">0.13</t>
-  </si>
-  <si>
     <t xml:space="preserve">l$control.global.CI95</t>
   </si>
   <si>
-    <t xml:space="preserve">[0.03, 0.24]</t>
+    <t xml:space="preserve">[0.08, 0.22]</t>
   </si>
   <si>
     <t xml:space="preserve">l$core.global.g.adj</t>
   </si>
   <si>
-    <t xml:space="preserve">0.56</t>
+    <t xml:space="preserve">0.54</t>
   </si>
   <si>
     <t xml:space="preserve">u3_global_adj</t>
@@ -647,7 +647,7 @@
     <t xml:space="preserve">l$threepsm_cf_p</t>
   </si>
   <si>
-    <t xml:space="preserve">.824</t>
+    <t xml:space="preserve">.812</t>
   </si>
   <si>
     <t xml:space="preserve">l$egger_df_p</t>
@@ -659,7 +659,7 @@
     <t xml:space="preserve">l$threepsm_df_p</t>
   </si>
   <si>
-    <t xml:space="preserve">.721</t>
+    <t xml:space="preserve">.706</t>
   </si>
   <si>
     <t xml:space="preserve">l$egger_bf_p</t>
@@ -671,7 +671,7 @@
     <t xml:space="preserve">l$threepsm_bf_p</t>
   </si>
   <si>
-    <t xml:space="preserve">.272</t>
+    <t xml:space="preserve">.271</t>
   </si>
   <si>
     <t xml:space="preserve">behav_df_below_4</t>
@@ -728,7 +728,7 @@
     <t xml:space="preserve">0.82</t>
   </si>
   <si>
-    <t xml:space="preserve">l$mr2$content$cf_regtable2$a.partner$g</t>
+    <t xml:space="preserve">l$mr2$content$cf_regtable2$unspecified.partner$g</t>
   </si>
   <si>
     <t xml:space="preserve">l$mr2$content$cf_regtable2$not.specified$g</t>
@@ -770,9 +770,6 @@
     <t xml:space="preserve">l$mr$group.testing$cf_regtable2$yes$g</t>
   </si>
   <si>
-    <t xml:space="preserve">0.63</t>
-  </si>
-  <si>
     <t xml:space="preserve">l$mr$group.testing$cf_regtable2$no$g</t>
   </si>
   <si>
@@ -809,34 +806,34 @@
     <t xml:space="preserve">l$mr2$content$di_modresults</t>
   </si>
   <si>
-    <t xml:space="preserve">*HTZ*(23.37) = 14.29, *p* &lt; .001</t>
+    <t xml:space="preserve">*HTZ*(23.05) = 15.76, *p* &lt; .001</t>
   </si>
   <si>
     <t xml:space="preserve">l$mr2$content$di_regtable2$not.specified$g</t>
   </si>
   <si>
-    <t xml:space="preserve">0.46</t>
+    <t xml:space="preserve">0.45</t>
   </si>
   <si>
     <t xml:space="preserve">l$mr2$content$di_regtable2$masturbation$g</t>
   </si>
   <si>
-    <t xml:space="preserve">l$mr2$content$di_regtable2$a.partner$g</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.26</t>
+    <t xml:space="preserve">0.49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l$mr2$content$di_regtable2$unspecified.partner$g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.27</t>
   </si>
   <si>
     <t xml:space="preserve">l$mr2$content$di_regtable2$own.partner$g</t>
   </si>
   <si>
-    <t xml:space="preserve">0.27</t>
-  </si>
-  <si>
     <t xml:space="preserve">l$mr2$context$di_modresults</t>
   </si>
   <si>
-    <t xml:space="preserve">*HTZ*(14.60) = 21.83, *p* &lt; .001</t>
+    <t xml:space="preserve">*HTZ*(14.16) = 21.41, *p* &lt; .001</t>
   </si>
   <si>
     <t xml:space="preserve">l$mr2$context$di_regtable2$romantic.situation$g</t>
@@ -854,40 +851,43 @@
     <t xml:space="preserve">l$mr2$context$di_regtable2$not.specified$g</t>
   </si>
   <si>
+    <t xml:space="preserve">0.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l$mr2$context$di_regtable2$while.spending.time.with.an.attractive.person$g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l$mr2$context$di_regtable2$first.seeing.an.attractive.person$g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l$mr2$ga.first.cat$di_regtable2$female$g</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.41</t>
   </si>
   <si>
-    <t xml:space="preserve">l$mr2$context$di_regtable2$while.spending.time.with.an.attractive.person$g</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">l$mr2$context$di_regtable2$first.seeing.an.attractive.person$g</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">l$mr2$ga.first.cat$di_regtable2$female$g</t>
-  </si>
-  <si>
     <t xml:space="preserve">l$mr2$ga.first.cat$di_regtable2$male$g</t>
   </si>
   <si>
-    <t xml:space="preserve">0.32</t>
+    <t xml:space="preserve">0.36</t>
   </si>
   <si>
     <t xml:space="preserve">l$mr2$ga.first.cat$di_modresults</t>
   </si>
   <si>
-    <t xml:space="preserve">*HTZ*(25.73) = 3.99, *p* = .056</t>
+    <t xml:space="preserve">*HTZ*(16.39) = 1.23, *p* = .283</t>
   </si>
   <si>
     <t xml:space="preserve">l$mr2$anonymity.participant$di_regtable2$yes$g</t>
   </si>
   <si>
-    <t xml:space="preserve">0.30</t>
+    <t xml:space="preserve">0.35</t>
   </si>
   <si>
     <t xml:space="preserve">l$mr2$anonymity.participant$di_regtable2$no$g</t>
@@ -899,7 +899,7 @@
     <t xml:space="preserve">l$mr2$anonymity.participant$di_modresults</t>
   </si>
   <si>
-    <t xml:space="preserve">*HTZ*(20.09) = 6.21, *p* = .022</t>
+    <t xml:space="preserve">*HTZ*(11.55) = 3.41, *p* = .090</t>
   </si>
   <si>
     <t xml:space="preserve">l$outlier_age_m_removed</t>
@@ -1049,9 +1049,6 @@
     <t xml:space="preserve">k_%_agebin:(30,35]</t>
   </si>
   <si>
-    <t xml:space="preserve">17</t>
-  </si>
-  <si>
     <t xml:space="preserve">k_%_agebin:(35,40]</t>
   </si>
   <si>
@@ -1134,6 +1131,30 @@
   </si>
   <si>
     <t xml:space="preserve">91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">core.bf.g.adj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">core.df.g.adj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">core.cf.g.adj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">second.di.g.adj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">second.sd.g.adj</t>
   </si>
 </sst>
 </file>
@@ -1869,7 +1890,7 @@
         <v>70</v>
       </c>
       <c r="C37" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38">
@@ -1877,10 +1898,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" t="s">
         <v>72</v>
-      </c>
-      <c r="C38" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="39">
@@ -1888,10 +1909,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" t="s">
         <v>74</v>
-      </c>
-      <c r="C39" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="40">
@@ -1899,7 +1920,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C40" t="s">
         <v>69</v>
@@ -1910,10 +1931,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41" t="s">
         <v>77</v>
-      </c>
-      <c r="C41" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="42">
@@ -1921,10 +1942,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" t="s">
         <v>79</v>
-      </c>
-      <c r="C42" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="43">
@@ -1932,10 +1953,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" t="s">
         <v>81</v>
-      </c>
-      <c r="C43" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="44">
@@ -1943,10 +1964,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45">
@@ -1954,10 +1975,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
+        <v>83</v>
+      </c>
+      <c r="C45" t="s">
         <v>84</v>
-      </c>
-      <c r="C45" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="46">
@@ -1965,10 +1986,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
+        <v>85</v>
+      </c>
+      <c r="C46" t="s">
         <v>86</v>
-      </c>
-      <c r="C46" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="47">
@@ -1976,10 +1997,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
+        <v>87</v>
+      </c>
+      <c r="C47" t="s">
         <v>88</v>
-      </c>
-      <c r="C47" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="48">
@@ -1987,10 +2008,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
+        <v>89</v>
+      </c>
+      <c r="C48" t="s">
         <v>90</v>
-      </c>
-      <c r="C48" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="49">
@@ -1998,10 +2019,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
+        <v>91</v>
+      </c>
+      <c r="C49" t="s">
         <v>92</v>
-      </c>
-      <c r="C49" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="50">
@@ -2009,10 +2030,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
+        <v>93</v>
+      </c>
+      <c r="C50" t="s">
         <v>94</v>
-      </c>
-      <c r="C50" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="51">
@@ -2020,10 +2041,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
+        <v>95</v>
+      </c>
+      <c r="C51" t="s">
         <v>96</v>
-      </c>
-      <c r="C51" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="52">
@@ -2031,10 +2052,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
+        <v>97</v>
+      </c>
+      <c r="C52" t="s">
         <v>98</v>
-      </c>
-      <c r="C52" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="53">
@@ -2042,10 +2063,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
+        <v>99</v>
+      </c>
+      <c r="C53" t="s">
         <v>100</v>
-      </c>
-      <c r="C53" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="54">
@@ -2053,10 +2074,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
+        <v>101</v>
+      </c>
+      <c r="C54" t="s">
         <v>102</v>
-      </c>
-      <c r="C54" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="55">
@@ -2064,10 +2085,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
+        <v>103</v>
+      </c>
+      <c r="C55" t="s">
         <v>104</v>
-      </c>
-      <c r="C55" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="56">
@@ -2075,10 +2096,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
+        <v>105</v>
+      </c>
+      <c r="C56" t="s">
         <v>106</v>
-      </c>
-      <c r="C56" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="57">
@@ -2086,10 +2107,10 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
+        <v>107</v>
+      </c>
+      <c r="C57" t="s">
         <v>108</v>
-      </c>
-      <c r="C57" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="58">
@@ -2097,10 +2118,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
+        <v>109</v>
+      </c>
+      <c r="C58" t="s">
         <v>110</v>
-      </c>
-      <c r="C58" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="59">
@@ -2108,10 +2129,10 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
+        <v>111</v>
+      </c>
+      <c r="C59" t="s">
         <v>112</v>
-      </c>
-      <c r="C59" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="60">
@@ -2119,10 +2140,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
+        <v>113</v>
+      </c>
+      <c r="C60" t="s">
         <v>114</v>
-      </c>
-      <c r="C60" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="61">
@@ -2130,10 +2151,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
+        <v>115</v>
+      </c>
+      <c r="C61" t="s">
         <v>116</v>
-      </c>
-      <c r="C61" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="62">
@@ -2141,10 +2162,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
+        <v>117</v>
+      </c>
+      <c r="C62" t="s">
         <v>118</v>
-      </c>
-      <c r="C62" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="63">
@@ -2152,10 +2173,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
+        <v>119</v>
+      </c>
+      <c r="C63" t="s">
         <v>120</v>
-      </c>
-      <c r="C63" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="64">
@@ -2163,10 +2184,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
+        <v>121</v>
+      </c>
+      <c r="C64" t="s">
         <v>122</v>
-      </c>
-      <c r="C64" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="65">
@@ -2174,10 +2195,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
+        <v>123</v>
+      </c>
+      <c r="C65" t="s">
         <v>124</v>
-      </c>
-      <c r="C65" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="66">
@@ -2185,10 +2206,10 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
+        <v>125</v>
+      </c>
+      <c r="C66" t="s">
         <v>126</v>
-      </c>
-      <c r="C66" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="67">
@@ -2196,10 +2217,10 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
+        <v>127</v>
+      </c>
+      <c r="C67" t="s">
         <v>128</v>
-      </c>
-      <c r="C67" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="68">
@@ -2207,10 +2228,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
+        <v>129</v>
+      </c>
+      <c r="C68" t="s">
         <v>130</v>
-      </c>
-      <c r="C68" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="69">
@@ -2218,10 +2239,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
+        <v>131</v>
+      </c>
+      <c r="C69" t="s">
         <v>132</v>
-      </c>
-      <c r="C69" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="70">
@@ -2229,10 +2250,10 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
+        <v>133</v>
+      </c>
+      <c r="C70" t="s">
         <v>134</v>
-      </c>
-      <c r="C70" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="71">
@@ -2240,10 +2261,10 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
+        <v>135</v>
+      </c>
+      <c r="C71" t="s">
         <v>136</v>
-      </c>
-      <c r="C71" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="72">
@@ -2251,10 +2272,10 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
+        <v>137</v>
+      </c>
+      <c r="C72" t="s">
         <v>138</v>
-      </c>
-      <c r="C72" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="73">
@@ -2262,10 +2283,10 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
+        <v>139</v>
+      </c>
+      <c r="C73" t="s">
         <v>140</v>
-      </c>
-      <c r="C73" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="74">
@@ -2273,10 +2294,10 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
+        <v>141</v>
+      </c>
+      <c r="C74" t="s">
         <v>142</v>
-      </c>
-      <c r="C74" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="75">
@@ -2284,10 +2305,10 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
+        <v>143</v>
+      </c>
+      <c r="C75" t="s">
         <v>144</v>
-      </c>
-      <c r="C75" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="76">
@@ -2295,10 +2316,10 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
+        <v>145</v>
+      </c>
+      <c r="C76" t="s">
         <v>146</v>
-      </c>
-      <c r="C76" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="77">
@@ -2306,10 +2327,10 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
+        <v>147</v>
+      </c>
+      <c r="C77" t="s">
         <v>148</v>
-      </c>
-      <c r="C77" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="78">
@@ -2317,10 +2338,10 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
+        <v>149</v>
+      </c>
+      <c r="C78" t="s">
         <v>150</v>
-      </c>
-      <c r="C78" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="79">
@@ -2375,7 +2396,7 @@
         <v>159</v>
       </c>
       <c r="C83" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
     </row>
     <row r="84">
@@ -2383,10 +2404,10 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C84" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="85">
@@ -2394,10 +2415,10 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C85" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="86">
@@ -2405,10 +2426,10 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C86" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="87">
@@ -2416,10 +2437,10 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C87" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="88">
@@ -2427,10 +2448,10 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C88" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="89">
@@ -2438,10 +2459,10 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C89" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="90">
@@ -2449,10 +2470,10 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C90" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="91">
@@ -2460,10 +2481,10 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C91" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="92">
@@ -2471,10 +2492,10 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C92" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="93">
@@ -2482,10 +2503,10 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C93" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="94">
@@ -2493,10 +2514,10 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C94" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
     </row>
     <row r="95">
@@ -2551,7 +2572,7 @@
         <v>189</v>
       </c>
       <c r="C99" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
     </row>
     <row r="100">
@@ -2559,10 +2580,10 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C100" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="101">
@@ -2570,10 +2591,10 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C101" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="102">
@@ -2581,10 +2602,10 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C102" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="103">
@@ -2592,10 +2613,10 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C103" t="s">
-        <v>197</v>
+        <v>160</v>
       </c>
     </row>
     <row r="104">
@@ -2826,7 +2847,7 @@
         <v>238</v>
       </c>
       <c r="C124" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="125">
@@ -2903,7 +2924,7 @@
         <v>251</v>
       </c>
       <c r="C131" t="s">
-        <v>252</v>
+        <v>150</v>
       </c>
     </row>
     <row r="132">
@@ -2911,10 +2932,10 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C132" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="133">
@@ -2922,10 +2943,10 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
+        <v>253</v>
+      </c>
+      <c r="C133" t="s">
         <v>254</v>
-      </c>
-      <c r="C133" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="134">
@@ -2933,10 +2954,10 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
+        <v>255</v>
+      </c>
+      <c r="C134" t="s">
         <v>256</v>
-      </c>
-      <c r="C134" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="135">
@@ -2944,10 +2965,10 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
+        <v>257</v>
+      </c>
+      <c r="C135" t="s">
         <v>258</v>
-      </c>
-      <c r="C135" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="136">
@@ -2955,10 +2976,10 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
+        <v>259</v>
+      </c>
+      <c r="C136" t="s">
         <v>260</v>
-      </c>
-      <c r="C136" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="137">
@@ -2966,10 +2987,10 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
+        <v>261</v>
+      </c>
+      <c r="C137" t="s">
         <v>262</v>
-      </c>
-      <c r="C137" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="138">
@@ -2977,10 +2998,10 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
+        <v>263</v>
+      </c>
+      <c r="C138" t="s">
         <v>264</v>
-      </c>
-      <c r="C138" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="139">
@@ -2988,10 +3009,10 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
+        <v>265</v>
+      </c>
+      <c r="C139" t="s">
         <v>266</v>
-      </c>
-      <c r="C139" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="140">
@@ -2999,10 +3020,10 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
+        <v>267</v>
+      </c>
+      <c r="C140" t="s">
         <v>268</v>
-      </c>
-      <c r="C140" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="141">
@@ -3024,7 +3045,7 @@
         <v>271</v>
       </c>
       <c r="C142" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="143">
@@ -3032,10 +3053,10 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
+        <v>272</v>
+      </c>
+      <c r="C143" t="s">
         <v>273</v>
-      </c>
-      <c r="C143" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="144">
@@ -3043,10 +3064,10 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
+        <v>274</v>
+      </c>
+      <c r="C144" t="s">
         <v>275</v>
-      </c>
-      <c r="C144" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="145">
@@ -3054,10 +3075,10 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
+        <v>276</v>
+      </c>
+      <c r="C145" t="s">
         <v>277</v>
-      </c>
-      <c r="C145" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="146">
@@ -3065,10 +3086,10 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
+        <v>278</v>
+      </c>
+      <c r="C146" t="s">
         <v>279</v>
-      </c>
-      <c r="C146" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="147">
@@ -3076,10 +3097,10 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
+        <v>280</v>
+      </c>
+      <c r="C147" t="s">
         <v>281</v>
-      </c>
-      <c r="C147" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="148">
@@ -3087,10 +3108,10 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
+        <v>282</v>
+      </c>
+      <c r="C148" t="s">
         <v>283</v>
-      </c>
-      <c r="C148" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="149">
@@ -3098,10 +3119,10 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
+        <v>284</v>
+      </c>
+      <c r="C149" t="s">
         <v>285</v>
-      </c>
-      <c r="C149" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="150">
@@ -3244,7 +3265,7 @@
         <v>307</v>
       </c>
       <c r="C162" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="163">
@@ -3288,7 +3309,7 @@
         <v>312</v>
       </c>
       <c r="C166" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="167">
@@ -3321,7 +3342,7 @@
         <v>316</v>
       </c>
       <c r="C169" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="170">
@@ -3343,7 +3364,7 @@
         <v>319</v>
       </c>
       <c r="C171" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="172">
@@ -3354,7 +3375,7 @@
         <v>320</v>
       </c>
       <c r="C172" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="173">
@@ -3541,7 +3562,7 @@
         <v>344</v>
       </c>
       <c r="C189" t="s">
-        <v>345</v>
+        <v>166</v>
       </c>
     </row>
     <row r="190">
@@ -3549,10 +3570,10 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
+        <v>345</v>
+      </c>
+      <c r="C190" t="s">
         <v>346</v>
-      </c>
-      <c r="C190" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="191">
@@ -3560,10 +3581,10 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
+        <v>347</v>
+      </c>
+      <c r="C191" t="s">
         <v>348</v>
-      </c>
-      <c r="C191" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="192">
@@ -3571,7 +3592,7 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C192" t="s">
         <v>34</v>
@@ -3582,10 +3603,10 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
+        <v>350</v>
+      </c>
+      <c r="C193" t="s">
         <v>351</v>
-      </c>
-      <c r="C193" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="194">
@@ -3593,10 +3614,10 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
+        <v>352</v>
+      </c>
+      <c r="C194" t="s">
         <v>353</v>
-      </c>
-      <c r="C194" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="195">
@@ -3604,10 +3625,10 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
+        <v>354</v>
+      </c>
+      <c r="C195" t="s">
         <v>355</v>
-      </c>
-      <c r="C195" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="196">
@@ -3615,10 +3636,10 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
+        <v>356</v>
+      </c>
+      <c r="C196" t="s">
         <v>357</v>
-      </c>
-      <c r="C196" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="197">
@@ -3626,10 +3647,10 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C197" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="198">
@@ -3637,10 +3658,10 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
+        <v>359</v>
+      </c>
+      <c r="C198" t="s">
         <v>360</v>
-      </c>
-      <c r="C198" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="199">
@@ -3648,10 +3669,10 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
+        <v>361</v>
+      </c>
+      <c r="C199" t="s">
         <v>362</v>
-      </c>
-      <c r="C199" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="200">
@@ -3659,10 +3680,10 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
+        <v>363</v>
+      </c>
+      <c r="C200" t="s">
         <v>364</v>
-      </c>
-      <c r="C200" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="201">
@@ -3670,7 +3691,7 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C201" t="s">
         <v>329</v>
@@ -3681,10 +3702,10 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
+        <v>366</v>
+      </c>
+      <c r="C202" t="s">
         <v>367</v>
-      </c>
-      <c r="C202" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="203">
@@ -3692,10 +3713,10 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
+        <v>368</v>
+      </c>
+      <c r="C203" t="s">
         <v>369</v>
-      </c>
-      <c r="C203" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="204">
@@ -3703,7 +3724,7 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C204" t="s">
         <v>335</v>
@@ -3714,10 +3735,65 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
+        <v>371</v>
+      </c>
+      <c r="C205" t="s">
         <v>372</v>
       </c>
-      <c r="C205" t="s">
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>205</v>
+      </c>
+      <c r="B206" t="s">
         <v>373</v>
+      </c>
+      <c r="C206" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>206</v>
+      </c>
+      <c r="B207" t="s">
+        <v>375</v>
+      </c>
+      <c r="C207" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>207</v>
+      </c>
+      <c r="B208" t="s">
+        <v>376</v>
+      </c>
+      <c r="C208" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>208</v>
+      </c>
+      <c r="B209" t="s">
+        <v>378</v>
+      </c>
+      <c r="C209" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>209</v>
+      </c>
+      <c r="B210" t="s">
+        <v>380</v>
+      </c>
+      <c r="C210" t="s">
+        <v>268</v>
       </c>
     </row>
   </sheetData>

--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="391">
   <si>
     <t xml:space="preserve">num</t>
   </si>
@@ -1155,12 +1155,42 @@
   </si>
   <si>
     <t xml:space="preserve">second.sd.g.adj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">europe.breakdown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germany: 54%, Portugal: 11%, United Kingdom: 9%, Spain: 9%, Norway: 4%, Croatia: 2%, Estonia: 2%, Italy: 2%, Others: 10%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">north.america.breakdown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United States: 79%, Canada: 13%, Mixed: 5%, Mexico: 2%, Costa Rica: less than 1%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asia.breakdown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japan: 38%, China: 31%, Israel: 13%, Turkey: 13%, India: 6%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oceania.breakdown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Australia: 100%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">africa.breakdown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cameroon: 100%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -1479,12 +1509,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -3794,6 +3824,61 @@
       </c>
       <c r="C210" t="s">
         <v>268</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>210</v>
+      </c>
+      <c r="B211" t="s">
+        <v>381</v>
+      </c>
+      <c r="C211" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>211</v>
+      </c>
+      <c r="B212" t="s">
+        <v>383</v>
+      </c>
+      <c r="C212" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>212</v>
+      </c>
+      <c r="B213" t="s">
+        <v>385</v>
+      </c>
+      <c r="C213" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>213</v>
+      </c>
+      <c r="B214" t="s">
+        <v>387</v>
+      </c>
+      <c r="C214" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>214</v>
+      </c>
+      <c r="B215" t="s">
+        <v>389</v>
+      </c>
+      <c r="C215" t="s">
+        <v>390</v>
       </c>
     </row>
   </sheetData>

--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -647,7 +647,7 @@
     <t xml:space="preserve">l$threepsm_cf_p</t>
   </si>
   <si>
-    <t xml:space="preserve">.812</t>
+    <t xml:space="preserve">.807</t>
   </si>
   <si>
     <t xml:space="preserve">l$egger_df_p</t>
@@ -659,7 +659,7 @@
     <t xml:space="preserve">l$threepsm_df_p</t>
   </si>
   <si>
-    <t xml:space="preserve">.706</t>
+    <t xml:space="preserve">.701</t>
   </si>
   <si>
     <t xml:space="preserve">l$egger_bf_p</t>
@@ -671,7 +671,7 @@
     <t xml:space="preserve">l$threepsm_bf_p</t>
   </si>
   <si>
-    <t xml:space="preserve">.271</t>
+    <t xml:space="preserve">.274</t>
   </si>
   <si>
     <t xml:space="preserve">behav_df_below_4</t>
